--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lrpap1-Sorl1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H2">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J2">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.122738634959169</v>
+        <v>0.1788416666666666</v>
       </c>
       <c r="N2">
-        <v>0.122738634959169</v>
+        <v>0.5365249999999999</v>
       </c>
       <c r="O2">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253072</v>
       </c>
       <c r="P2">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253071</v>
       </c>
       <c r="Q2">
-        <v>0.9695434240660633</v>
+        <v>1.417795032958333</v>
       </c>
       <c r="R2">
-        <v>0.9695434240660633</v>
+        <v>12.760155296625</v>
       </c>
       <c r="S2">
-        <v>0.0005102361998845739</v>
+        <v>0.0006762429239897333</v>
       </c>
       <c r="T2">
-        <v>0.0005102361998845739</v>
+        <v>0.0006762429239897331</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H3">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J3">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0977908235483556</v>
+        <v>0.1427333333333334</v>
       </c>
       <c r="N3">
-        <v>0.0977908235483556</v>
+        <v>0.4282</v>
       </c>
       <c r="O3">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="P3">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="Q3">
-        <v>0.7724743715526395</v>
+        <v>1.131540623666667</v>
       </c>
       <c r="R3">
-        <v>0.7724743715526395</v>
+        <v>10.183865613</v>
       </c>
       <c r="S3">
-        <v>0.0004065257708584972</v>
+        <v>0.0005397087182375544</v>
       </c>
       <c r="T3">
-        <v>0.0004065257708584972</v>
+        <v>0.0005397087182375542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H4">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I4">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J4">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.62798100174216</v>
+        <v>7.674834333333334</v>
       </c>
       <c r="N4">
-        <v>7.62798100174216</v>
+        <v>23.024503</v>
       </c>
       <c r="O4">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="P4">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="Q4">
-        <v>60.25534520243166</v>
+        <v>60.84343877682168</v>
       </c>
       <c r="R4">
-        <v>60.25534520243166</v>
+        <v>547.5909489913951</v>
       </c>
       <c r="S4">
-        <v>0.03171024380722017</v>
+        <v>0.02902037599763364</v>
       </c>
       <c r="T4">
-        <v>0.03171024380722017</v>
+        <v>0.02902037599763364</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H5">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I5">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J5">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9582960615648</v>
+        <v>23.42985866666666</v>
       </c>
       <c r="N5">
-        <v>20.9582960615648</v>
+        <v>70.289576</v>
       </c>
       <c r="O5">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="P5">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="Q5">
-        <v>165.5548648791768</v>
+        <v>185.7438362080933</v>
       </c>
       <c r="R5">
-        <v>165.5548648791768</v>
+        <v>1671.69452587284</v>
       </c>
       <c r="S5">
-        <v>0.08712563360400807</v>
+        <v>0.08859387428402886</v>
       </c>
       <c r="T5">
-        <v>0.08712563360400807</v>
+        <v>0.08859387428402885</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.89925213351605</v>
+        <v>7.927655000000001</v>
       </c>
       <c r="H6">
-        <v>7.89925213351605</v>
+        <v>23.782965</v>
       </c>
       <c r="I6">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="J6">
-        <v>0.1208134804686744</v>
+        <v>0.1200556835465435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.255188061764316</v>
+        <v>0.3240953333333333</v>
       </c>
       <c r="N6">
-        <v>0.255188061764316</v>
+        <v>0.972286</v>
       </c>
       <c r="O6">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="P6">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="Q6">
-        <v>2.015794841339599</v>
+        <v>2.569315989776667</v>
       </c>
       <c r="R6">
-        <v>2.015794841339599</v>
+        <v>23.12384390799</v>
       </c>
       <c r="S6">
-        <v>0.001060841086703056</v>
+        <v>0.00122548162265371</v>
       </c>
       <c r="T6">
-        <v>0.001060841086703056</v>
+        <v>0.00122548162265371</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H7">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I7">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J7">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.122738634959169</v>
+        <v>0.1788416666666666</v>
       </c>
       <c r="N7">
-        <v>0.122738634959169</v>
+        <v>0.5365249999999999</v>
       </c>
       <c r="O7">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253072</v>
       </c>
       <c r="P7">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253071</v>
       </c>
       <c r="Q7">
-        <v>1.579131763372893</v>
+        <v>2.3214599771</v>
       </c>
       <c r="R7">
-        <v>1.579131763372893</v>
+        <v>20.8931397939</v>
       </c>
       <c r="S7">
-        <v>0.0008310408487753403</v>
+        <v>0.001107262225036572</v>
       </c>
       <c r="T7">
-        <v>0.0008310408487753403</v>
+        <v>0.001107262225036571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H8">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I8">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J8">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0977908235483556</v>
+        <v>0.1427333333333334</v>
       </c>
       <c r="N8">
-        <v>0.0977908235483556</v>
+        <v>0.4282</v>
       </c>
       <c r="O8">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="P8">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="Q8">
-        <v>1.258158001211062</v>
+        <v>1.8527546008</v>
       </c>
       <c r="R8">
-        <v>1.258158001211062</v>
+        <v>16.6747914072</v>
       </c>
       <c r="S8">
-        <v>0.0006621237805936179</v>
+        <v>0.0008837047383824799</v>
       </c>
       <c r="T8">
-        <v>0.0006621237805936179</v>
+        <v>0.0008837047383824797</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H9">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I9">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J9">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.62798100174216</v>
+        <v>7.674834333333334</v>
       </c>
       <c r="N9">
-        <v>7.62798100174216</v>
+        <v>23.024503</v>
       </c>
       <c r="O9">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="P9">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="Q9">
-        <v>98.14014221571865</v>
+        <v>99.62343265853202</v>
       </c>
       <c r="R9">
-        <v>98.14014221571865</v>
+        <v>896.6108939267882</v>
       </c>
       <c r="S9">
-        <v>0.0516476642276395</v>
+        <v>0.04751719383466049</v>
       </c>
       <c r="T9">
-        <v>0.0516476642276395</v>
+        <v>0.04751719383466049</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H10">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I10">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J10">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.9582960615648</v>
+        <v>23.42985866666666</v>
       </c>
       <c r="N10">
-        <v>20.9582960615648</v>
+        <v>70.289576</v>
       </c>
       <c r="O10">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="P10">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="Q10">
-        <v>269.6454219814312</v>
+        <v>304.132030178144</v>
       </c>
       <c r="R10">
-        <v>269.6454219814312</v>
+        <v>2737.188271603296</v>
       </c>
       <c r="S10">
-        <v>0.1419047894225139</v>
+        <v>0.145061259621895</v>
       </c>
       <c r="T10">
-        <v>0.1419047894225139</v>
+        <v>0.145061259621895</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.865808422085</v>
+        <v>12.980532</v>
       </c>
       <c r="H11">
-        <v>12.865808422085</v>
+        <v>38.941596</v>
       </c>
       <c r="I11">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="J11">
-        <v>0.1967734499725871</v>
+        <v>0.1965759915205419</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.255188061764316</v>
+        <v>0.3240953333333333</v>
       </c>
       <c r="N11">
-        <v>0.255188061764316</v>
+        <v>0.972286</v>
       </c>
       <c r="O11">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="P11">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="Q11">
-        <v>3.283200714262884</v>
+        <v>4.206929845384001</v>
       </c>
       <c r="R11">
-        <v>3.283200714262884</v>
+        <v>37.862368608456</v>
       </c>
       <c r="S11">
-        <v>0.0017278316930647</v>
+        <v>0.00200657110056737</v>
       </c>
       <c r="T11">
-        <v>0.0017278316930647</v>
+        <v>0.002006571100567369</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H12">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I12">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J12">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.122738634959169</v>
+        <v>0.1788416666666666</v>
       </c>
       <c r="N12">
-        <v>0.122738634959169</v>
+        <v>0.5365249999999999</v>
       </c>
       <c r="O12">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253072</v>
       </c>
       <c r="P12">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253071</v>
       </c>
       <c r="Q12">
-        <v>2.689406056868709</v>
+        <v>3.925846720736111</v>
       </c>
       <c r="R12">
-        <v>2.689406056868709</v>
+        <v>35.332620486625</v>
       </c>
       <c r="S12">
-        <v>0.001415338696897545</v>
+        <v>0.001872503432337892</v>
       </c>
       <c r="T12">
-        <v>0.001415338696897545</v>
+        <v>0.001872503432337892</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H13">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I13">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J13">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.0977908235483556</v>
+        <v>0.1427333333333334</v>
       </c>
       <c r="N13">
-        <v>0.0977908235483556</v>
+        <v>0.4282</v>
       </c>
       <c r="O13">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="P13">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="Q13">
-        <v>2.142758335585349</v>
+        <v>3.133213859222223</v>
       </c>
       <c r="R13">
-        <v>2.142758335585349</v>
+        <v>28.19892473300001</v>
       </c>
       <c r="S13">
-        <v>0.001127657455335973</v>
+        <v>0.001494442886588855</v>
       </c>
       <c r="T13">
-        <v>0.001127657455335973</v>
+        <v>0.001494442886588855</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H14">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I14">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J14">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.62798100174216</v>
+        <v>7.674834333333334</v>
       </c>
       <c r="N14">
-        <v>7.62798100174216</v>
+        <v>23.024503</v>
       </c>
       <c r="O14">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="P14">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="Q14">
-        <v>167.141652785933</v>
+        <v>168.4742921562439</v>
       </c>
       <c r="R14">
-        <v>167.141652785933</v>
+        <v>1516.268629406195</v>
       </c>
       <c r="S14">
-        <v>0.08796070360857855</v>
+        <v>0.08035685363286725</v>
       </c>
       <c r="T14">
-        <v>0.08796070360857855</v>
+        <v>0.08035685363286724</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H15">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I15">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J15">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.9582960615648</v>
+        <v>23.42985866666666</v>
       </c>
       <c r="N15">
-        <v>20.9582960615648</v>
+        <v>70.289576</v>
       </c>
       <c r="O15">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="P15">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="Q15">
-        <v>459.2308557804218</v>
+        <v>514.3210501682711</v>
       </c>
       <c r="R15">
-        <v>459.2308557804218</v>
+        <v>4628.88945151444</v>
       </c>
       <c r="S15">
-        <v>0.2416768562469021</v>
+        <v>0.2453147054052935</v>
       </c>
       <c r="T15">
-        <v>0.2416768562469021</v>
+        <v>0.2453147054052935</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.9116503761296</v>
+        <v>21.95152166666667</v>
       </c>
       <c r="H16">
-        <v>21.9116503761296</v>
+        <v>65.85456500000001</v>
       </c>
       <c r="I16">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="J16">
-        <v>0.3351232116672094</v>
+        <v>0.3324318400054526</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.255188061764316</v>
+        <v>0.3240953333333333</v>
       </c>
       <c r="N16">
-        <v>0.255188061764316</v>
+        <v>0.972286</v>
       </c>
       <c r="O16">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="P16">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="Q16">
-        <v>5.591591589541859</v>
+        <v>7.114385731732223</v>
       </c>
       <c r="R16">
-        <v>5.591591589541859</v>
+        <v>64.02947158559</v>
       </c>
       <c r="S16">
-        <v>0.002942655659495227</v>
+        <v>0.00339333464836509</v>
       </c>
       <c r="T16">
-        <v>0.002942655659495227</v>
+        <v>0.00339333464836509</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H17">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I17">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J17">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.122738634959169</v>
+        <v>0.1788416666666666</v>
       </c>
       <c r="N17">
-        <v>0.122738634959169</v>
+        <v>0.5365249999999999</v>
       </c>
       <c r="O17">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253072</v>
       </c>
       <c r="P17">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253071</v>
       </c>
       <c r="Q17">
-        <v>2.349604869073425</v>
+        <v>3.46993358855</v>
       </c>
       <c r="R17">
-        <v>2.349604869073425</v>
+        <v>31.22940229695</v>
       </c>
       <c r="S17">
-        <v>0.001236513424637108</v>
+        <v>0.00165504743734012</v>
       </c>
       <c r="T17">
-        <v>0.001236513424637108</v>
+        <v>0.001655047437340119</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H18">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I18">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J18">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.0977908235483556</v>
+        <v>0.1427333333333334</v>
       </c>
       <c r="N18">
-        <v>0.0977908235483556</v>
+        <v>0.4282</v>
       </c>
       <c r="O18">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="P18">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="Q18">
-        <v>1.872025016706053</v>
+        <v>2.769350100400001</v>
       </c>
       <c r="R18">
-        <v>1.872025016706053</v>
+        <v>24.9241509036</v>
       </c>
       <c r="S18">
-        <v>0.0009851801444922884</v>
+        <v>0.001320891501177092</v>
       </c>
       <c r="T18">
-        <v>0.0009851801444922884</v>
+        <v>0.001320891501177092</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H19">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I19">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J19">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.62798100174216</v>
+        <v>7.674834333333334</v>
       </c>
       <c r="N19">
-        <v>7.62798100174216</v>
+        <v>23.024503</v>
       </c>
       <c r="O19">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="P19">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="Q19">
-        <v>146.0236323212756</v>
+        <v>148.909177241266</v>
       </c>
       <c r="R19">
-        <v>146.0236323212756</v>
+        <v>1340.182595171394</v>
       </c>
       <c r="S19">
-        <v>0.07684704098810241</v>
+        <v>0.07102491903672691</v>
       </c>
       <c r="T19">
-        <v>0.07684704098810241</v>
+        <v>0.07102491903672691</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H20">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I20">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J20">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.9582960615648</v>
+        <v>23.42985866666666</v>
       </c>
       <c r="N20">
-        <v>20.9582960615648</v>
+        <v>70.289576</v>
       </c>
       <c r="O20">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="P20">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="Q20">
-        <v>401.2079366054279</v>
+        <v>454.592350193072</v>
       </c>
       <c r="R20">
-        <v>401.2079366054279</v>
+        <v>4091.331151737648</v>
       </c>
       <c r="S20">
-        <v>0.2111414588101377</v>
+        <v>0.2168260241936976</v>
       </c>
       <c r="T20">
-        <v>0.2111414588101377</v>
+        <v>0.2168260241936976</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.1431562674219</v>
+        <v>19.402266</v>
       </c>
       <c r="H21">
-        <v>19.1431562674219</v>
+        <v>58.20679800000001</v>
       </c>
       <c r="I21">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="J21">
-        <v>0.2927810502477941</v>
+        <v>0.293826144929599</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.255188061764316</v>
+        <v>0.3240953333333333</v>
       </c>
       <c r="N21">
-        <v>0.255188061764316</v>
+        <v>0.972286</v>
       </c>
       <c r="O21">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="P21">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="Q21">
-        <v>4.885104943934813</v>
+        <v>6.288183866692001</v>
       </c>
       <c r="R21">
-        <v>4.885104943934813</v>
+        <v>56.593654800228</v>
       </c>
       <c r="S21">
-        <v>0.002570856880424579</v>
+        <v>0.002999262760657333</v>
       </c>
       <c r="T21">
-        <v>0.002570856880424579</v>
+        <v>0.002999262760657333</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H22">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I22">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J22">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.122738634959169</v>
+        <v>0.1788416666666666</v>
       </c>
       <c r="N22">
-        <v>0.122738634959169</v>
+        <v>0.5365249999999999</v>
       </c>
       <c r="O22">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253072</v>
       </c>
       <c r="P22">
-        <v>0.004223338305503687</v>
+        <v>0.005632743940253071</v>
       </c>
       <c r="Q22">
-        <v>0.437440058838205</v>
+        <v>0.6744433415194444</v>
       </c>
       <c r="R22">
-        <v>0.437440058838205</v>
+        <v>6.069990073674999</v>
       </c>
       <c r="S22">
-        <v>0.0002302091353091182</v>
+        <v>0.0003216879215487554</v>
       </c>
       <c r="T22">
-        <v>0.0002302091353091182</v>
+        <v>0.0003216879215487553</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H23">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I23">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J23">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.0977908235483556</v>
+        <v>0.1427333333333334</v>
       </c>
       <c r="N23">
-        <v>0.0977908235483556</v>
+        <v>0.4282</v>
       </c>
       <c r="O23">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="P23">
-        <v>0.003364904059393479</v>
+        <v>0.004495486613329045</v>
       </c>
       <c r="Q23">
-        <v>0.3485261476230355</v>
+        <v>0.538272473488889</v>
       </c>
       <c r="R23">
-        <v>0.3485261476230355</v>
+        <v>4.844452261400001</v>
       </c>
       <c r="S23">
-        <v>0.0001834169081131022</v>
+        <v>0.0002567387689430634</v>
       </c>
       <c r="T23">
-        <v>0.0001834169081131022</v>
+        <v>0.0002567387689430634</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H24">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I24">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J24">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.62798100174216</v>
+        <v>7.674834333333334</v>
       </c>
       <c r="N24">
-        <v>7.62798100174216</v>
+        <v>23.024503</v>
       </c>
       <c r="O24">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="P24">
-        <v>0.2624727280780748</v>
+        <v>0.2417242994279646</v>
       </c>
       <c r="Q24">
-        <v>27.18609718389679</v>
+        <v>28.94314848356456</v>
       </c>
       <c r="R24">
-        <v>27.18609718389679</v>
+        <v>260.488336352081</v>
       </c>
       <c r="S24">
-        <v>0.01430707544653414</v>
+        <v>0.0138049569260763</v>
       </c>
       <c r="T24">
-        <v>0.01430707544653414</v>
+        <v>0.01380495692607629</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H25">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I25">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J25">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.9582960615648</v>
+        <v>23.42985866666666</v>
       </c>
       <c r="N25">
-        <v>20.9582960615648</v>
+        <v>70.289576</v>
       </c>
       <c r="O25">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="P25">
-        <v>0.7211582123618963</v>
+        <v>0.7379398597958301</v>
       </c>
       <c r="Q25">
-        <v>74.69529268733768</v>
+        <v>88.35811287717243</v>
       </c>
       <c r="R25">
-        <v>74.69529268733768</v>
+        <v>795.223015894552</v>
       </c>
       <c r="S25">
-        <v>0.0393094742783344</v>
+        <v>0.0421439962909152</v>
       </c>
       <c r="T25">
-        <v>0.0393094742783344</v>
+        <v>0.0421439962909152</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.56399644646306</v>
+        <v>3.771175666666667</v>
       </c>
       <c r="H26">
-        <v>3.56399644646306</v>
+        <v>11.313527</v>
       </c>
       <c r="I26">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="J26">
-        <v>0.054508807643735</v>
+        <v>0.05711033999786299</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.255188061764316</v>
+        <v>0.3240953333333333</v>
       </c>
       <c r="N26">
-        <v>0.255188061764316</v>
+        <v>0.972286</v>
       </c>
       <c r="O26">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="P26">
-        <v>0.008780817195131803</v>
+        <v>0.01020761022262317</v>
       </c>
       <c r="Q26">
-        <v>0.9094893453078181</v>
+        <v>1.222220434746889</v>
       </c>
       <c r="R26">
-        <v>0.9094893453078181</v>
+        <v>10.999983912722</v>
       </c>
       <c r="S26">
-        <v>0.0004786318754442401</v>
+        <v>0.0005829600903796714</v>
       </c>
       <c r="T26">
-        <v>0.0004786318754442401</v>
+        <v>0.0005829600903796714</v>
       </c>
     </row>
   </sheetData>
